--- a/test_in.xlsx
+++ b/test_in.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr updateLinks="always" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\PycharmProjects\mvl_gui\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="WE 07-05-10" sheetId="2" r:id="rId1"/>
@@ -3056,8 +3056,8 @@
       <sheetName val="WE 09-20-13"/>
       <sheetName val="WE 09-13-13"/>
       <sheetName val="WE 09-06-13"/>
+      <sheetName val="WE 12-14-12"/>
       <sheetName val="WE 12-14-12 (2)"/>
-      <sheetName val="WE 12-14-12"/>
       <sheetName val="WE 12-07-12"/>
       <sheetName val="WE 11-29-12"/>
       <sheetName val="WE 11-22-12"/>
@@ -3143,6 +3143,7 @@
       <sheetName val="WE 05-15-11"/>
       <sheetName val="WE 05-08-11"/>
       <sheetName val="WE 05-01-11"/>
+      <sheetName val="WE 04-24-11"/>
       <sheetName val="WE 04-17-11"/>
       <sheetName val="WE 04-10-11"/>
       <sheetName val="WE 04-03-11"/>
@@ -3411,14 +3412,14 @@
       <sheetData sheetId="194"/>
       <sheetData sheetId="195"/>
       <sheetData sheetId="196"/>
-      <sheetData sheetId="197">
+      <sheetData sheetId="197"/>
+      <sheetData sheetId="198">
         <row r="9">
           <cell r="B9">
             <v>30000</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="198"/>
       <sheetData sheetId="199"/>
       <sheetData sheetId="200"/>
       <sheetData sheetId="201"/>
@@ -3474,6 +3475,7 @@
       <sheetData sheetId="251"/>
       <sheetData sheetId="252"/>
       <sheetData sheetId="253"/>
+      <sheetData sheetId="254"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3781,7 +3783,7 @@
   </sheetPr>
   <dimension ref="A1:AF148"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="H36" sqref="H36:I37"/>
     </sheetView>
   </sheetViews>
@@ -22029,7 +22031,7 @@
   <dimension ref="A1:AI148"/>
   <sheetViews>
     <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="S114" sqref="S114:S117"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -31341,7 +31343,7 @@
   <dimension ref="A1:AD148"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="I37" sqref="H33:I37"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -40152,8 +40154,8 @@
   </sheetPr>
   <dimension ref="A1:AD148"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -40192,7 +40194,7 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <f>+B1</f>
+        <f>B1</f>
         <v>42490</v>
       </c>
       <c r="B1" s="372">
@@ -40209,10 +40211,10 @@
     </row>
     <row r="2" spans="1:30" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <f>+B2</f>
+        <f>B2</f>
         <v>42496</v>
       </c>
-      <c r="B2" s="373">
+      <c r="B2" s="374">
         <v>42496</v>
       </c>
       <c r="C2" s="4" t="s">

--- a/test_in.xlsx
+++ b/test_in.xlsx
@@ -3897,8 +3897,8 @@
   </sheetPr>
   <dimension ref="A1:AD148"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+    <sheetView topLeftCell="A19" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33:I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5629,7 +5629,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="383"/>
-      <c r="I33" s="384"/>
+      <c r="I33" s="397"/>
       <c r="J33" s="154">
         <f>+J31</f>
         <v>0</v>
@@ -5640,7 +5640,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="383"/>
-      <c r="N33" s="384"/>
+      <c r="N33" s="397"/>
       <c r="O33" s="154">
         <f>+O31</f>
         <v>0</v>
@@ -5714,8 +5714,8 @@
         <f>+G33</f>
         <v>1</v>
       </c>
-      <c r="H34" s="386"/>
-      <c r="I34" s="387"/>
+      <c r="H34" s="388"/>
+      <c r="I34" s="389"/>
       <c r="J34" s="154">
         <f>+J33</f>
         <v>0</v>
@@ -5800,8 +5800,8 @@
         <f>+G34</f>
         <v>1</v>
       </c>
-      <c r="H35" s="386"/>
-      <c r="I35" s="387"/>
+      <c r="H35" s="388"/>
+      <c r="I35" s="389"/>
       <c r="J35" s="154">
         <f>+J34</f>
         <v>0</v>
@@ -5886,8 +5886,8 @@
         <f>+G35</f>
         <v>1</v>
       </c>
-      <c r="H36" s="386"/>
-      <c r="I36" s="387"/>
+      <c r="H36" s="388"/>
+      <c r="I36" s="389"/>
       <c r="J36" s="154">
         <f>+J35</f>
         <v>0</v>
@@ -5972,8 +5972,8 @@
         <f>+G36</f>
         <v>1</v>
       </c>
-      <c r="H37" s="386"/>
-      <c r="I37" s="387"/>
+      <c r="H37" s="388"/>
+      <c r="I37" s="389"/>
       <c r="J37" s="154">
         <f>+J36</f>
         <v>0</v>
@@ -6334,7 +6334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A42" s="390"/>
       <c r="B42" s="148" t="s">
         <v>144</v>
@@ -6369,8 +6369,8 @@
         <v>0</v>
       </c>
       <c r="P42" s="12"/>
-      <c r="Q42" s="385">
-        <f>((+H42+(I42/16))-J42)*20</f>
+      <c r="Q42" s="165">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R42" s="156">
@@ -7730,8 +7730,8 @@
         <v>0</v>
       </c>
       <c r="P59" s="12"/>
-      <c r="Q59" s="155">
-        <f>((+H59+(I59/16))-J59)*20</f>
+      <c r="Q59" s="165">
+        <f>(((+H59+(I59/16))-J59)-((+H58+(I58/16))-J58))*20</f>
         <v>0</v>
       </c>
       <c r="R59" s="156">
@@ -12831,8 +12831,8 @@
   </sheetPr>
   <dimension ref="A1:AD148"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33:I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12925,7 +12925,7 @@
       </c>
       <c r="W3" s="56">
         <f>+AA7/I8</f>
-        <v>0</v>
+        <v>41.910714285714285</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -13063,7 +13063,7 @@
       </c>
       <c r="AA7" s="36">
         <f>+Y113</f>
-        <v>0</v>
+        <v>293.375</v>
       </c>
       <c r="AD7" s="4">
         <v>39013.949999999997</v>
@@ -13147,7 +13147,7 @@
       </c>
       <c r="AA8" s="47">
         <f>+Y113*((365/12)/7)*(7/+Z7)</f>
-        <v>0</v>
+        <v>1274.7842261904764</v>
       </c>
       <c r="AD8" s="4">
         <f>AD7-AD6</f>
@@ -13508,18 +13508,18 @@
         <f>W13+W12+W9+W8</f>
         <v>13.682395303326809</v>
       </c>
-      <c r="X14" s="343" t="e">
+      <c r="X14" s="343">
         <f>+W14/AA7</f>
-        <v>#DIV/0!</v>
+        <v>4.6637904740781624E-2</v>
       </c>
       <c r="Y14" s="65">
         <f>SUM(Y8:Y13)</f>
         <v>10249415.578571429</v>
       </c>
       <c r="Z14" s="66"/>
-      <c r="AA14" s="67" t="e">
+      <c r="AA14" s="67">
         <f>+U14/AA8</f>
-        <v>#DIV/0!</v>
+        <v>0.10264482201119471</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -13664,23 +13664,23 @@
       </c>
       <c r="D18" s="77">
         <f>SUM(D19:D21)</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="78" t="e">
+        <v>72.862158613445388</v>
+      </c>
+      <c r="E18" s="78">
         <f>(+U26/D18)</f>
-        <v>#DIV/0!</v>
+        <v>0.17799669366942061</v>
       </c>
       <c r="F18" s="79"/>
       <c r="G18" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="H18" s="80" t="e">
+      <c r="H18" s="80">
         <f>SUM(H19:H21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I18" s="81" t="e">
+        <v>1</v>
+      </c>
+      <c r="I18" s="81">
         <f>+Z105</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="J18" s="82" t="e">
         <f>+M18/M27</f>
@@ -13688,11 +13688,11 @@
       </c>
       <c r="L18" s="83">
         <f>+Y105</f>
-        <v>0</v>
-      </c>
-      <c r="M18" s="84" t="e">
+        <v>293.375</v>
+      </c>
+      <c r="M18" s="84">
         <f>SUM(M19:M21)</f>
-        <v>#DIV/0!</v>
+        <v>280.40577667318985</v>
       </c>
       <c r="S18" s="29" t="s">
         <v>26</v>
@@ -13719,9 +13719,9 @@
       <c r="A19" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="87" t="e">
+      <c r="B19" s="87">
         <f>+D19/+SUM(D19:D21)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="C19" s="4">
         <v>12</v>
@@ -13730,24 +13730,24 @@
         <f>SUM(R46:R57)+SUM(V46:V57)</f>
         <v>0</v>
       </c>
-      <c r="E19" s="379" t="e">
+      <c r="E19" s="379">
         <f>+F19/SUM(F19:F21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F19" s="90" t="e">
+        <v>0</v>
+      </c>
+      <c r="F19" s="90">
         <f>+D19*E18</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="G19" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="H19" s="380" t="e">
+      <c r="H19" s="380">
         <f>+L19/L18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I19" s="92" t="e">
+        <v>0</v>
+      </c>
+      <c r="I19" s="92">
         <f>+L19/(+L18+L23)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="J19" s="93" t="e">
         <f>+M19/M27</f>
@@ -13757,9 +13757,9 @@
         <f>SUM(Y46:Y57)</f>
         <v>0</v>
       </c>
-      <c r="M19" s="94" t="e">
+      <c r="M19" s="94">
         <f>+L19-F19</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="N19" s="4">
         <v>0.25</v>
@@ -13797,33 +13797,33 @@
       <c r="A20" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="87" t="e">
+      <c r="B20" s="87">
         <f>+D20/+SUM(D19:D21)</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="C20" s="4">
         <v>5</v>
       </c>
       <c r="D20" s="88">
         <f>SUM(R33:R37)+SUM(V33:V37)</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="97" t="e">
+        <v>72.862158613445388</v>
+      </c>
+      <c r="E20" s="97">
         <f>+F20/SUM(F19:F21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F20" s="98" t="e">
+        <v>1</v>
+      </c>
+      <c r="F20" s="98">
         <f>+D20*E18</f>
-        <v>#DIV/0!</v>
+        <v>12.969223326810175</v>
       </c>
       <c r="G20" s="12"/>
-      <c r="H20" s="99" t="e">
+      <c r="H20" s="99">
         <f>+L20/L18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I20" s="92" t="e">
+        <v>1</v>
+      </c>
+      <c r="I20" s="92">
         <f>+L20/(+L18+L23)</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="J20" s="93" t="e">
         <f>+M20/M27</f>
@@ -13831,22 +13831,22 @@
       </c>
       <c r="L20" s="100">
         <f>SUM(Y33:Y37)</f>
-        <v>0</v>
-      </c>
-      <c r="M20" s="94" t="e">
+        <v>293.375</v>
+      </c>
+      <c r="M20" s="94">
         <f>+L20-F20</f>
-        <v>#DIV/0!</v>
+        <v>280.40577667318985</v>
       </c>
       <c r="N20" s="4">
         <v>0.25</v>
       </c>
       <c r="O20" s="56">
         <f>+D20*N20</f>
-        <v>0</v>
+        <v>18.215539653361347</v>
       </c>
       <c r="Q20" s="56">
         <f>+O20*4.33333</f>
-        <v>0</v>
+        <v>78.933944446100327</v>
       </c>
       <c r="S20" s="29" t="s">
         <v>74</v>
@@ -13873,9 +13873,9 @@
       <c r="A21" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="B21" s="87" t="e">
+      <c r="B21" s="87">
         <f>+D21/+SUM(D19:D21)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="C21" s="4">
         <v>11</v>
@@ -13884,22 +13884,22 @@
         <f>SUM(R39:R44)+SUM(V39:V44)+SUM(R59:R63)+SUM(V59:V63)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="101" t="e">
+      <c r="E21" s="101">
         <f>+F21/SUM(F19:F21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F21" s="102" t="e">
+        <v>0</v>
+      </c>
+      <c r="F21" s="102">
         <f>+D21*E18</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="G21" s="12"/>
-      <c r="H21" s="99" t="e">
+      <c r="H21" s="99">
         <f>+L21/L18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I21" s="92" t="e">
+        <v>0</v>
+      </c>
+      <c r="I21" s="92">
         <f>+L21/(+L18+L23)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="J21" s="93" t="e">
         <f>+M21/M27</f>
@@ -13909,9 +13909,9 @@
         <f>SUM(Y39:Y44,Y59:Y63)</f>
         <v>0</v>
       </c>
-      <c r="M21" s="94" t="e">
+      <c r="M21" s="94">
         <f>+L21-F21</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="N21" s="4">
         <v>0.25</v>
@@ -13950,23 +13950,23 @@
       <c r="M22" s="94"/>
       <c r="O22" s="74">
         <f>SUM(O19:O21)</f>
-        <v>0</v>
+        <v>18.215539653361347</v>
       </c>
       <c r="Q22" s="74">
         <f>SUM(Q19:Q21)</f>
-        <v>0</v>
+        <v>78.933944446100327</v>
       </c>
       <c r="S22" s="29" t="s">
         <v>261</v>
       </c>
       <c r="T22" s="12"/>
-      <c r="U22" s="106" t="e">
+      <c r="U22" s="106">
         <f>+I18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V22" s="106" t="e">
+        <v>1</v>
+      </c>
+      <c r="V22" s="106">
         <f>+I23</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="W22" s="12"/>
       <c r="X22" s="30"/>
@@ -13997,9 +13997,9 @@
         <f>SUM(H24:H26)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="81" t="e">
+      <c r="I23" s="81">
         <f>+Z106</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="J23" s="82" t="e">
         <f>+M23/M27</f>
@@ -14065,9 +14065,9 @@
         <f>+L24/L23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="114" t="e">
+      <c r="I24" s="114">
         <f>+L24/(L18+L23)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="J24" s="93" t="e">
         <f>+M24/M27</f>
@@ -14140,9 +14140,9 @@
         <f>+L25/L23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="114" t="e">
+      <c r="I25" s="114">
         <f>+L25/(+L18+L23)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="J25" s="93" t="e">
         <f>+M25/M27</f>
@@ -14214,9 +14214,9 @@
         <f>+L26/L23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="114" t="e">
+      <c r="I26" s="114">
         <f>+L26/(+L18+L23)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="J26" s="93" t="e">
         <f>+M26/M27</f>
@@ -14273,7 +14273,7 @@
       <c r="J27" s="9"/>
       <c r="L27" s="121">
         <f>+L18+L23</f>
-        <v>0</v>
+        <v>293.375</v>
       </c>
       <c r="M27" s="122" t="e">
         <f>+M18+M23</f>
@@ -14568,8 +14568,12 @@
         <f>+E30</f>
         <v>7</v>
       </c>
-      <c r="H33" s="383"/>
-      <c r="I33" s="384"/>
+      <c r="H33" s="383">
+        <v>1</v>
+      </c>
+      <c r="I33" s="397">
+        <v>3.2</v>
+      </c>
       <c r="J33" s="154">
         <f>+J31</f>
         <v>0</v>
@@ -14579,8 +14583,12 @@
         <f>+F30</f>
         <v>0</v>
       </c>
-      <c r="M33" s="383"/>
-      <c r="N33" s="384"/>
+      <c r="M33" s="383">
+        <v>1</v>
+      </c>
+      <c r="N33" s="397">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="O33" s="154">
         <f>+O31</f>
         <v>0</v>
@@ -14588,24 +14596,24 @@
       <c r="P33" s="12"/>
       <c r="Q33" s="385">
         <f>((+H33+(I33/16))-J33)*20</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="R33" s="156">
         <f>+Q33/E33</f>
-        <v>0</v>
+        <v>5.6470588235294121</v>
       </c>
       <c r="S33" s="157">
         <f>(+R33/C33)/G33</f>
-        <v>0</v>
+        <v>0.80672268907563027</v>
       </c>
       <c r="T33" s="12"/>
       <c r="U33" s="385">
         <f>((+M33+(N33/16))-O33)*20</f>
-        <v>0</v>
+        <v>22.875</v>
       </c>
       <c r="V33" s="156">
         <f>+U33/E33</f>
-        <v>0</v>
+        <v>5.382352941176471</v>
       </c>
       <c r="W33" s="157" t="e">
         <f>(+V33/C33)/L33</f>
@@ -14616,19 +14624,19 @@
       </c>
       <c r="Y33" s="50">
         <f>+U33+Q33</f>
-        <v>0</v>
-      </c>
-      <c r="Z33" s="158" t="e">
+        <v>46.875</v>
+      </c>
+      <c r="Z33" s="158">
         <f>+Y33/Y112</f>
-        <v>#DIV/0!</v>
+        <v>0.1597784405624201</v>
       </c>
       <c r="AA33" s="159">
         <f>((+R33+V33)/C33)/(+G33+L33)</f>
-        <v>0</v>
+        <v>1.5756302521008405</v>
       </c>
       <c r="AB33" s="4">
         <f>IF(M33&lt;M32, (((+M33+(N33/16))-O33)*20), ((((+M33+(N33/16))-O33)-((+M32+(N32/16))-O32))*20))</f>
-        <v>0</v>
+        <v>22.875</v>
       </c>
       <c r="AC33" s="4">
         <f>IF(AB33=U33, 1, 0)</f>
@@ -14654,8 +14662,12 @@
         <f>+G33</f>
         <v>7</v>
       </c>
-      <c r="H34" s="386"/>
-      <c r="I34" s="387"/>
+      <c r="H34" s="388">
+        <v>2</v>
+      </c>
+      <c r="I34" s="389">
+        <v>3.4</v>
+      </c>
       <c r="J34" s="154">
         <f>+J33</f>
         <v>0</v>
@@ -14665,8 +14677,12 @@
         <f>+L33</f>
         <v>0</v>
       </c>
-      <c r="M34" s="388"/>
-      <c r="N34" s="389"/>
+      <c r="M34" s="388">
+        <v>4</v>
+      </c>
+      <c r="N34" s="389">
+        <v>3.3</v>
+      </c>
       <c r="O34" s="154">
         <f>+O33</f>
         <v>0</v>
@@ -14674,24 +14690,24 @@
       <c r="P34" s="12"/>
       <c r="Q34" s="165">
         <f>(((+H34+(I34/16))-J34)-((+H33+(I33/16))-J33))*20</f>
-        <v>0</v>
+        <v>20.25</v>
       </c>
       <c r="R34" s="156">
         <f>+Q34/E34</f>
-        <v>0</v>
+        <v>4.7647058823529411</v>
       </c>
       <c r="S34" s="157">
         <f>(+R34/C34)/G34</f>
-        <v>0</v>
+        <v>0.68067226890756305</v>
       </c>
       <c r="T34" s="12"/>
       <c r="U34" s="165">
         <f t="shared" ref="U34:U37" si="1">(((+M34+(N34/16))-O34)-((+M33+(N33/16))-O33))*20</f>
-        <v>0</v>
+        <v>61.25</v>
       </c>
       <c r="V34" s="156">
         <f>+U34/E34</f>
-        <v>0</v>
+        <v>14.411764705882353</v>
       </c>
       <c r="W34" s="157" t="e">
         <f>(+V34/C34)/L34</f>
@@ -14702,19 +14718,19 @@
       </c>
       <c r="Y34" s="50">
         <f>+U34+Q34</f>
-        <v>0</v>
-      </c>
-      <c r="Z34" s="158" t="e">
+        <v>81.5</v>
+      </c>
+      <c r="Z34" s="158">
         <f>+Y34/TOTAL_MEASUED_INCOME</f>
-        <v>#DIV/0!</v>
+        <v>0.27780144865786111</v>
       </c>
       <c r="AA34" s="159">
         <f>((+R34+V34)/C34)/(+G34+L34)</f>
-        <v>0</v>
+        <v>2.7394957983193278</v>
       </c>
       <c r="AB34" s="4">
         <f t="shared" ref="AB34:AB37" si="2">IF(M34&lt;M33, (((+M34+(N34/16))-O34)*20), ((((+M34+(N34/16))-O34)-((+M33+(N33/16))-O33))*20))</f>
-        <v>0</v>
+        <v>61.25</v>
       </c>
       <c r="AC34" s="4">
         <f t="shared" ref="AC34:AC37" si="3">IF(AB34=U34, 1, 0)</f>
@@ -14740,8 +14756,12 @@
         <f>+G34</f>
         <v>7</v>
       </c>
-      <c r="H35" s="386"/>
-      <c r="I35" s="387"/>
+      <c r="H35" s="388">
+        <v>3</v>
+      </c>
+      <c r="I35" s="389">
+        <v>6.5</v>
+      </c>
       <c r="J35" s="154">
         <f>+J34</f>
         <v>0</v>
@@ -14751,8 +14771,12 @@
         <f>+L34</f>
         <v>0</v>
       </c>
-      <c r="M35" s="388"/>
-      <c r="N35" s="389"/>
+      <c r="M35" s="388">
+        <v>5</v>
+      </c>
+      <c r="N35" s="389">
+        <v>6.4</v>
+      </c>
       <c r="O35" s="154">
         <f>+O34</f>
         <v>0</v>
@@ -14760,24 +14784,24 @@
       <c r="P35" s="12"/>
       <c r="Q35" s="165">
         <f>(((+H35+(I35/16))-J35)-((+H34+(I34/16))-J34))*20</f>
-        <v>0</v>
+        <v>23.875</v>
       </c>
       <c r="R35" s="156">
         <f>+Q35/E35</f>
-        <v>0</v>
+        <v>5.617647058823529</v>
       </c>
       <c r="S35" s="157">
         <f>(+R35/C35)/G35</f>
-        <v>0</v>
+        <v>0.80252100840336127</v>
       </c>
       <c r="T35" s="12"/>
       <c r="U35" s="165">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>23.875000000000011</v>
       </c>
       <c r="V35" s="156">
         <f>+U35/E35</f>
-        <v>0</v>
+        <v>5.6176470588235317</v>
       </c>
       <c r="W35" s="157" t="e">
         <f>(+V35/C35)/L35</f>
@@ -14788,19 +14812,19 @@
       </c>
       <c r="Y35" s="50">
         <f>+U35+Q35</f>
-        <v>0</v>
-      </c>
-      <c r="Z35" s="158" t="e">
+        <v>47.750000000000014</v>
+      </c>
+      <c r="Z35" s="158">
         <f>+Y35/TOTAL_MEASUED_INCOME</f>
-        <v>#DIV/0!</v>
+        <v>0.16276097145291868</v>
       </c>
       <c r="AA35" s="159">
         <f>((+R35+V35)/C35)/(+G35+L35)</f>
-        <v>0</v>
+        <v>1.605042016806723</v>
       </c>
       <c r="AB35" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>23.875000000000011</v>
       </c>
       <c r="AC35" s="4">
         <f t="shared" si="3"/>
@@ -14826,8 +14850,12 @@
         <f>+G35</f>
         <v>7</v>
       </c>
-      <c r="H36" s="386"/>
-      <c r="I36" s="387"/>
+      <c r="H36" s="388">
+        <v>4</v>
+      </c>
+      <c r="I36" s="389">
+        <v>6.7</v>
+      </c>
       <c r="J36" s="154">
         <f>+J35</f>
         <v>0</v>
@@ -14837,8 +14865,12 @@
         <f>+L35</f>
         <v>0</v>
       </c>
-      <c r="M36" s="388"/>
-      <c r="N36" s="389"/>
+      <c r="M36" s="388">
+        <v>7</v>
+      </c>
+      <c r="N36" s="389">
+        <v>5.43</v>
+      </c>
       <c r="O36" s="154">
         <f>+O35</f>
         <v>0</v>
@@ -14846,24 +14878,24 @@
       <c r="P36" s="12"/>
       <c r="Q36" s="165">
         <f>(((+H36+(I36/16))-J36)-((+H35+(I35/16))-J35))*20</f>
-        <v>0</v>
+        <v>20.250000000000004</v>
       </c>
       <c r="R36" s="156">
         <f>+Q36/E36</f>
-        <v>0</v>
+        <v>5.7857142857142865</v>
       </c>
       <c r="S36" s="157">
         <f>(+R36/C36)/G36</f>
-        <v>0</v>
+        <v>0.8265306122448981</v>
       </c>
       <c r="T36" s="12"/>
       <c r="U36" s="165">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>38.787500000000001</v>
       </c>
       <c r="V36" s="156">
         <f>+U36/E36</f>
-        <v>0</v>
+        <v>11.082142857142857</v>
       </c>
       <c r="W36" s="157" t="e">
         <f>(+V36/C36)/L36</f>
@@ -14874,19 +14906,19 @@
       </c>
       <c r="Y36" s="50">
         <f>+U36+Q36</f>
-        <v>0</v>
-      </c>
-      <c r="Z36" s="158" t="e">
+        <v>59.037500000000009</v>
+      </c>
+      <c r="Z36" s="158">
         <f>+Y36/TOTAL_MEASUED_INCOME</f>
-        <v>#DIV/0!</v>
+        <v>0.20123561994034941</v>
       </c>
       <c r="AA36" s="159">
         <f>((+R36+V36)/C36)/(+G36+L36)</f>
-        <v>0</v>
+        <v>2.4096938775510206</v>
       </c>
       <c r="AB36" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>38.787500000000001</v>
       </c>
       <c r="AC36" s="4">
         <f t="shared" si="3"/>
@@ -14912,8 +14944,12 @@
         <f>+G36</f>
         <v>7</v>
       </c>
-      <c r="H37" s="386"/>
-      <c r="I37" s="387"/>
+      <c r="H37" s="388">
+        <v>6</v>
+      </c>
+      <c r="I37" s="389">
+        <v>7.5</v>
+      </c>
       <c r="J37" s="154">
         <f>+J36</f>
         <v>0</v>
@@ -14923,8 +14959,12 @@
         <f>+L36</f>
         <v>0</v>
       </c>
-      <c r="M37" s="388"/>
-      <c r="N37" s="389"/>
+      <c r="M37" s="388">
+        <v>8</v>
+      </c>
+      <c r="N37" s="389">
+        <v>3.2</v>
+      </c>
       <c r="O37" s="154">
         <f>+O36</f>
         <v>0</v>
@@ -14932,24 +14972,24 @@
       <c r="P37" s="12"/>
       <c r="Q37" s="165">
         <f>(((+H37+(I37/16))-J37)-((+H36+(I36/16))-J36))*20</f>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="R37" s="156">
         <f>+Q37/E37</f>
-        <v>0</v>
+        <v>10.25</v>
       </c>
       <c r="S37" s="157">
         <f>(+R37/C37)/G37</f>
-        <v>0</v>
+        <v>1.4642857142857142</v>
       </c>
       <c r="T37" s="12"/>
       <c r="U37" s="165">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17.212499999999977</v>
       </c>
       <c r="V37" s="156">
         <f>+U37/E37</f>
-        <v>0</v>
+        <v>4.3031249999999943</v>
       </c>
       <c r="W37" s="157" t="e">
         <f>(+V37/C37)/L37</f>
@@ -14960,19 +15000,19 @@
       </c>
       <c r="Y37" s="50">
         <f>+U37+Q37</f>
-        <v>0</v>
-      </c>
-      <c r="Z37" s="158" t="e">
+        <v>58.212499999999977</v>
+      </c>
+      <c r="Z37" s="158">
         <f>+Y37/TOTAL_MEASUED_INCOME</f>
-        <v>#DIV/0!</v>
+        <v>0.1984235193864507</v>
       </c>
       <c r="AA37" s="159">
         <f>((+R37+V37)/C37)/(+G37+L37)</f>
-        <v>0</v>
+        <v>2.0790178571428561</v>
       </c>
       <c r="AB37" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>17.212499999999977</v>
       </c>
       <c r="AC37" s="4">
         <f t="shared" si="3"/>
@@ -15000,7 +15040,7 @@
       <c r="R38" s="156"/>
       <c r="S38" s="166">
         <f>AVERAGE(S33:S37)</f>
-        <v>0</v>
+        <v>0.91614645858343347</v>
       </c>
       <c r="T38" s="12"/>
       <c r="U38" s="165"/>
@@ -15011,13 +15051,13 @@
       </c>
       <c r="X38" s="30"/>
       <c r="Y38" s="50"/>
-      <c r="Z38" s="167" t="e">
+      <c r="Z38" s="167">
         <f>SUM(Y33:Y37)/TOTAL_MEASUED_INCOME</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="AA38" s="168">
         <f>AVERAGE(AA33:AA37)</f>
-        <v>0</v>
+        <v>2.0817759603841539</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="15" x14ac:dyDescent="0.25">
@@ -15089,9 +15129,9 @@
         <f t="shared" ref="Y39:Y44" si="10">+U39+Q39</f>
         <v>0</v>
       </c>
-      <c r="Z39" s="158" t="e">
+      <c r="Z39" s="158">
         <f t="shared" ref="Z39:Z44" si="11">+Y39/TOTAL_MEASUED_INCOME</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AA39" s="159">
         <f t="shared" ref="AA39:AA44" si="12">((+R39+V39)/C39)/(+G39+L39)</f>
@@ -15173,9 +15213,9 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Z40" s="158" t="e">
+      <c r="Z40" s="158">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AA40" s="159">
         <f t="shared" si="12"/>
@@ -15257,9 +15297,9 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Z41" s="158" t="e">
+      <c r="Z41" s="158">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AA41" s="159">
         <f t="shared" si="12"/>
@@ -15274,7 +15314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A42" s="390"/>
       <c r="B42" s="148" t="s">
         <v>144</v>
@@ -15309,8 +15349,8 @@
         <v>0</v>
       </c>
       <c r="P42" s="12"/>
-      <c r="Q42" s="385">
-        <f>((+H42+(I42/16))-J42)*20</f>
+      <c r="Q42" s="165">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R42" s="156">
@@ -15341,9 +15381,9 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Z42" s="158" t="e">
+      <c r="Z42" s="158">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AA42" s="159">
         <f t="shared" si="12"/>
@@ -15425,9 +15465,9 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Z43" s="158" t="e">
+      <c r="Z43" s="158">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AA43" s="159">
         <f t="shared" si="12"/>
@@ -15509,9 +15549,9 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Z44" s="158" t="e">
+      <c r="Z44" s="158">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AA44" s="159">
         <f t="shared" si="12"/>
@@ -15560,9 +15600,9 @@
       </c>
       <c r="X45" s="24"/>
       <c r="Y45" s="50"/>
-      <c r="Z45" s="167" t="e">
+      <c r="Z45" s="167">
         <f>SUM(Y39:Y44)/TOTAL_MEASUED_INCOME</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AA45" s="168">
         <f>AVERAGE(AA39:AA44)</f>
@@ -15638,9 +15678,9 @@
         <f t="shared" ref="Y46:Y57" si="22">+U46+Q46</f>
         <v>0</v>
       </c>
-      <c r="Z46" s="158" t="e">
+      <c r="Z46" s="158">
         <f t="shared" ref="Z46:Z57" si="23">+Y46/TOTAL_MEASUED_INCOME</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AA46" s="159">
         <f t="shared" ref="AA46:AA57" si="24">((+R46+V46)/C46)/(+G46+L46)</f>
@@ -15723,9 +15763,9 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="Z47" s="158" t="e">
+      <c r="Z47" s="158">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AA47" s="159">
         <f t="shared" si="24"/>
@@ -15808,9 +15848,9 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="Z48" s="158" t="e">
+      <c r="Z48" s="158">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AA48" s="159">
         <f t="shared" si="24"/>
@@ -15893,9 +15933,9 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="Z49" s="158" t="e">
+      <c r="Z49" s="158">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AA49" s="159">
         <f t="shared" si="24"/>
@@ -15978,9 +16018,9 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="Z50" s="158" t="e">
+      <c r="Z50" s="158">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AA50" s="159">
         <f t="shared" si="24"/>
@@ -16063,9 +16103,9 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="Z51" s="158" t="e">
+      <c r="Z51" s="158">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AA51" s="159">
         <f t="shared" si="24"/>
@@ -16148,9 +16188,9 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="Z52" s="158" t="e">
+      <c r="Z52" s="158">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AA52" s="159">
         <f t="shared" si="24"/>
@@ -16233,9 +16273,9 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="Z53" s="158" t="e">
+      <c r="Z53" s="158">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AA53" s="159">
         <f t="shared" si="24"/>
@@ -16318,9 +16358,9 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="Z54" s="158" t="e">
+      <c r="Z54" s="158">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AA54" s="159">
         <f t="shared" si="24"/>
@@ -16403,9 +16443,9 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="Z55" s="158" t="e">
+      <c r="Z55" s="158">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AA55" s="159">
         <f t="shared" si="24"/>
@@ -16488,9 +16528,9 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="Z56" s="158" t="e">
+      <c r="Z56" s="158">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AA56" s="159">
         <f t="shared" si="24"/>
@@ -16573,9 +16613,9 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="Z57" s="158" t="e">
+      <c r="Z57" s="158">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AA57" s="159">
         <f t="shared" si="24"/>
@@ -16624,9 +16664,9 @@
       </c>
       <c r="X58" s="24"/>
       <c r="Y58" s="50"/>
-      <c r="Z58" s="167" t="e">
+      <c r="Z58" s="167">
         <f>SUM(Y46:Y57)/TOTAL_MEASUED_INCOME</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AA58" s="168">
         <f>AVERAGE(AA46:AA57)</f>
@@ -16670,8 +16710,8 @@
         <v>0</v>
       </c>
       <c r="P59" s="12"/>
-      <c r="Q59" s="155">
-        <f>((+H59+(I59/16))-J59)*20</f>
+      <c r="Q59" s="165">
+        <f>(((+H59+(I59/16))-J59)-((+H58+(I58/16))-J58))*20</f>
         <v>0</v>
       </c>
       <c r="R59" s="156">
@@ -16702,9 +16742,9 @@
         <f>+U59+Q59</f>
         <v>0</v>
       </c>
-      <c r="Z59" s="158" t="e">
+      <c r="Z59" s="158">
         <f>+Y59/TOTAL_MEASUED_INCOME</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AA59" s="159">
         <f>((+R59+V59)/C59)/(+G59+L59)</f>
@@ -16786,9 +16826,9 @@
         <f>+U60+Q60</f>
         <v>0</v>
       </c>
-      <c r="Z60" s="158" t="e">
+      <c r="Z60" s="158">
         <f>+Y60/TOTAL_MEASUED_INCOME</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AA60" s="159">
         <f>((+R60+V60)/C60)/(+G60+L60)</f>
@@ -16870,9 +16910,9 @@
         <f>+U61+Q61</f>
         <v>0</v>
       </c>
-      <c r="Z61" s="158" t="e">
+      <c r="Z61" s="158">
         <f>+Y61/TOTAL_MEASUED_INCOME</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AA61" s="159">
         <f>((+R61+V61)/C61)/(+G61+L61)</f>
@@ -16954,9 +16994,9 @@
         <f>+U62+Q62</f>
         <v>0</v>
       </c>
-      <c r="Z62" s="158" t="e">
+      <c r="Z62" s="158">
         <f>+Y62/TOTAL_MEASUED_INCOME</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AA62" s="159">
         <f>((+R62+V62)/C62)/(+G62+L62)</f>
@@ -17034,9 +17074,9 @@
         <f>+U63+Q63</f>
         <v>0</v>
       </c>
-      <c r="Z63" s="158" t="e">
+      <c r="Z63" s="158">
         <f>+Y63/TOTAL_MEASUED_INCOME</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AA63" s="159">
         <f>((+R63+V63)/C63)/(+G63+L63)</f>
@@ -17082,11 +17122,11 @@
       <c r="X64" s="30"/>
       <c r="Y64" s="50">
         <f>SUM(Y33:Y63)</f>
-        <v>0</v>
-      </c>
-      <c r="Z64" s="167" t="e">
+        <v>293.375</v>
+      </c>
+      <c r="Z64" s="167">
         <f>SUM(Y59:Y63)/TOTAL_MEASUED_INCOME</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AA64" s="168">
         <f>AVERAGE(AA59:AA63)</f>
@@ -17384,8 +17424,12 @@
         <f>+F67</f>
         <v>0</v>
       </c>
-      <c r="M70" s="383"/>
-      <c r="N70" s="397"/>
+      <c r="M70" s="383">
+        <v>1</v>
+      </c>
+      <c r="N70" s="397">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="O70" s="154">
         <f>+O68</f>
         <v>0</v>
@@ -17404,15 +17448,15 @@
       </c>
       <c r="U70" s="385">
         <f>((+M70+(N70/16))-O70)*20</f>
-        <v>0</v>
+        <v>22.875</v>
       </c>
       <c r="V70" s="156">
         <f t="shared" ref="V70:V79" si="36">+U70/E70</f>
-        <v>0</v>
+        <v>91.5</v>
       </c>
       <c r="W70" s="192">
         <f t="shared" ref="W70:W79" si="37">((+U70/+E70)*F70)/(L70+G70)</f>
-        <v>0</v>
+        <v>91.5</v>
       </c>
       <c r="X70" s="193">
         <f>+X67*60</f>
@@ -17420,19 +17464,19 @@
       </c>
       <c r="Y70" s="50">
         <f t="shared" ref="Y70:Y79" si="38">+U70+Q70</f>
-        <v>0</v>
-      </c>
-      <c r="Z70" s="158" t="e">
+        <v>22.875</v>
+      </c>
+      <c r="Z70" s="158">
         <f t="shared" ref="Z70:Z79" si="39">+Y70/TOTAL_MEASUED_INCOME</f>
-        <v>#DIV/0!</v>
+        <v>7.7971878994461008E-2</v>
       </c>
       <c r="AA70" s="194">
         <f t="shared" ref="AA70:AA79" si="40">((+V70+R70)*F70)/(+X70*7)</f>
-        <v>0</v>
+        <v>0.10892857142857143</v>
       </c>
       <c r="AB70" s="4">
         <f t="shared" ref="AB70:AB79" si="41">IF(M70&lt;M69, (((+M70+(N70/16))-O70)*20), ((((+M70+(N70/16))-O70)-((+M69+(N69/16))-O69))*20))</f>
-        <v>0</v>
+        <v>22.875</v>
       </c>
       <c r="AC70" s="4">
         <f t="shared" ref="AC70:AC79" si="42">IF(AB70=U70, 1, 0)</f>
@@ -17469,8 +17513,12 @@
         <f t="shared" ref="L71:L79" si="45">+L70</f>
         <v>0</v>
       </c>
-      <c r="M71" s="398"/>
-      <c r="N71" s="389"/>
+      <c r="M71" s="398">
+        <v>2</v>
+      </c>
+      <c r="N71" s="389">
+        <v>3.4</v>
+      </c>
       <c r="O71" s="154">
         <f t="shared" ref="O71:O81" si="46">+O70</f>
         <v>0</v>
@@ -17489,15 +17537,15 @@
       </c>
       <c r="U71" s="165">
         <f t="shared" ref="U71:U79" si="47">(((+M71+(N71/16))-O71)-((+M70+(N70/16))-O70))*20</f>
-        <v>0</v>
+        <v>21.374999999999996</v>
       </c>
       <c r="V71" s="156">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>85.499999999999986</v>
       </c>
       <c r="W71" s="192">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>85.499999999999986</v>
       </c>
       <c r="X71" s="193">
         <f t="shared" ref="X71:X79" si="48">+X70</f>
@@ -17505,19 +17553,19 @@
       </c>
       <c r="Y71" s="50">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="Z71" s="158" t="e">
+        <v>21.374999999999996</v>
+      </c>
+      <c r="Z71" s="158">
         <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
+        <v>7.2858968896463552E-2</v>
       </c>
       <c r="AA71" s="194">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>0.10178571428571427</v>
       </c>
       <c r="AB71" s="4">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>21.374999999999996</v>
       </c>
       <c r="AC71" s="4">
         <f t="shared" si="42"/>
@@ -17555,7 +17603,9 @@
         <v>0</v>
       </c>
       <c r="M72" s="398"/>
-      <c r="N72" s="389"/>
+      <c r="N72" s="389">
+        <v>5</v>
+      </c>
       <c r="O72" s="154">
         <f t="shared" si="46"/>
         <v>0</v>
@@ -17574,15 +17624,15 @@
       </c>
       <c r="U72" s="165">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>-38</v>
       </c>
       <c r="V72" s="156">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>-152</v>
       </c>
       <c r="W72" s="192">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>-152</v>
       </c>
       <c r="X72" s="193">
         <f t="shared" si="48"/>
@@ -17590,23 +17640,23 @@
       </c>
       <c r="Y72" s="50">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="Z72" s="158" t="e">
+        <v>-38</v>
+      </c>
+      <c r="Z72" s="158">
         <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
+        <v>-0.12952705581593524</v>
       </c>
       <c r="AA72" s="194">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>-0.18095238095238095</v>
       </c>
       <c r="AB72" s="4">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="AC72" s="4">
         <f t="shared" si="42"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -17639,8 +17689,12 @@
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="M73" s="398"/>
-      <c r="N73" s="389"/>
+      <c r="M73" s="398">
+        <v>4</v>
+      </c>
+      <c r="N73" s="389">
+        <v>3.2</v>
+      </c>
       <c r="O73" s="154">
         <f t="shared" si="46"/>
         <v>0</v>
@@ -17659,15 +17713,15 @@
       </c>
       <c r="U73" s="165">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>77.75</v>
       </c>
       <c r="V73" s="156">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>311</v>
       </c>
       <c r="W73" s="192">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>311</v>
       </c>
       <c r="X73" s="193">
         <f t="shared" si="48"/>
@@ -17675,19 +17729,19 @@
       </c>
       <c r="Y73" s="50">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="Z73" s="158" t="e">
+        <v>77.75</v>
+      </c>
+      <c r="Z73" s="158">
         <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
+        <v>0.26501917341286751</v>
       </c>
       <c r="AA73" s="194">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>0.37023809523809526</v>
       </c>
       <c r="AB73" s="4">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>77.75</v>
       </c>
       <c r="AC73" s="4">
         <f t="shared" si="42"/>
@@ -17744,15 +17798,15 @@
       </c>
       <c r="U74" s="165">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>-84</v>
       </c>
       <c r="V74" s="156">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>-336</v>
       </c>
       <c r="W74" s="192">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>-336</v>
       </c>
       <c r="X74" s="193">
         <f t="shared" si="48"/>
@@ -17760,15 +17814,15 @@
       </c>
       <c r="Y74" s="50">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="Z74" s="158" t="e">
+        <v>-84</v>
+      </c>
+      <c r="Z74" s="158">
         <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
+        <v>-0.28632296548785685</v>
       </c>
       <c r="AA74" s="194">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="AB74" s="4">
         <f t="shared" si="41"/>
@@ -17776,7 +17830,7 @@
       </c>
       <c r="AC74" s="4">
         <f t="shared" si="42"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -17847,9 +17901,9 @@
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="Z75" s="158" t="e">
+      <c r="Z75" s="158">
         <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AA75" s="194">
         <f t="shared" si="40"/>
@@ -17932,9 +17986,9 @@
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="Z76" s="158" t="e">
+      <c r="Z76" s="158">
         <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AA76" s="194">
         <f t="shared" si="40"/>
@@ -18017,9 +18071,9 @@
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="Z77" s="158" t="e">
+      <c r="Z77" s="158">
         <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AA77" s="194">
         <f t="shared" si="40"/>
@@ -18102,9 +18156,9 @@
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="Z78" s="158" t="e">
+      <c r="Z78" s="158">
         <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AA78" s="194">
         <f t="shared" si="40"/>
@@ -18187,9 +18241,9 @@
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="Z79" s="158" t="e">
+      <c r="Z79" s="158">
         <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AA79" s="194">
         <f t="shared" si="40"/>
@@ -18230,9 +18284,9 @@
       <c r="W80" s="200"/>
       <c r="X80" s="193"/>
       <c r="Y80" s="50"/>
-      <c r="Z80" s="201" t="e">
+      <c r="Z80" s="201">
         <f>SUM(Y70:Y79)/TOTAL_MEASUED_INCOME</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AA80" s="194"/>
     </row>
@@ -18304,9 +18358,9 @@
         <f t="shared" ref="Y81:Y86" si="54">+U81+Q81</f>
         <v>0</v>
       </c>
-      <c r="Z81" s="158" t="e">
+      <c r="Z81" s="158">
         <f t="shared" ref="Z81:Z86" si="55">+Y81/TOTAL_MEASUED_INCOME</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AA81" s="194">
         <f t="shared" ref="AA81:AA86" si="56">((+V81+R81)*F81)/(+X81*7)</f>
@@ -18389,9 +18443,9 @@
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="Z82" s="158" t="e">
+      <c r="Z82" s="158">
         <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AA82" s="194">
         <f t="shared" si="56"/>
@@ -18474,9 +18528,9 @@
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="Z83" s="158" t="e">
+      <c r="Z83" s="158">
         <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AA83" s="194">
         <f t="shared" si="56"/>
@@ -18559,9 +18613,9 @@
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="Z84" s="158" t="e">
+      <c r="Z84" s="158">
         <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AA84" s="194">
         <f t="shared" si="56"/>
@@ -18644,9 +18698,9 @@
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="Z85" s="158" t="e">
+      <c r="Z85" s="158">
         <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AA85" s="194">
         <f t="shared" si="56"/>
@@ -18729,9 +18783,9 @@
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="Z86" s="158" t="e">
+      <c r="Z86" s="158">
         <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AA86" s="194">
         <f t="shared" si="56"/>
@@ -18772,9 +18826,9 @@
       <c r="W87" s="200"/>
       <c r="X87" s="193"/>
       <c r="Y87" s="50"/>
-      <c r="Z87" s="202" t="e">
+      <c r="Z87" s="202">
         <f>SUM(Y81:Y86)/TOTAL_MEASUED_INCOME</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AA87" s="194"/>
     </row>
@@ -18845,9 +18899,9 @@
         <f t="shared" ref="Y88:Y101" si="63">+U88+Q88</f>
         <v>0</v>
       </c>
-      <c r="Z88" s="158" t="e">
+      <c r="Z88" s="158">
         <f t="shared" ref="Z88:Z101" si="64">+Y88/TOTAL_MEASUED_INCOME</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AA88" s="194">
         <f t="shared" ref="AA88:AA101" si="65">((+V88+R88)*F88)/(+X88*7)</f>
@@ -18929,9 +18983,9 @@
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="Z89" s="158" t="e">
+      <c r="Z89" s="158">
         <f t="shared" si="64"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AA89" s="194">
         <f t="shared" si="65"/>
@@ -19013,9 +19067,9 @@
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="Z90" s="158" t="e">
+      <c r="Z90" s="158">
         <f t="shared" si="64"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AA90" s="194">
         <f t="shared" si="65"/>
@@ -19097,9 +19151,9 @@
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="Z91" s="158" t="e">
+      <c r="Z91" s="158">
         <f t="shared" si="64"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AA91" s="194">
         <f t="shared" si="65"/>
@@ -19181,9 +19235,9 @@
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="Z92" s="158" t="e">
+      <c r="Z92" s="158">
         <f t="shared" si="64"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AA92" s="194">
         <f t="shared" si="65"/>
@@ -19265,9 +19319,9 @@
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="Z93" s="158" t="e">
+      <c r="Z93" s="158">
         <f t="shared" si="64"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AA93" s="194">
         <f t="shared" si="65"/>
@@ -19350,9 +19404,9 @@
         <f>+U94+Q94</f>
         <v>0</v>
       </c>
-      <c r="Z94" s="158" t="e">
+      <c r="Z94" s="158">
         <f t="shared" si="64"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AA94" s="194">
         <f t="shared" si="65"/>
@@ -19435,9 +19489,9 @@
         <f>+U95+Q95</f>
         <v>0</v>
       </c>
-      <c r="Z95" s="158" t="e">
+      <c r="Z95" s="158">
         <f t="shared" si="64"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AA95" s="194">
         <f t="shared" si="65"/>
@@ -19520,9 +19574,9 @@
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="Z96" s="158" t="e">
+      <c r="Z96" s="158">
         <f t="shared" si="64"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AA96" s="194">
         <f t="shared" si="65"/>
@@ -19605,9 +19659,9 @@
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="Z97" s="158" t="e">
+      <c r="Z97" s="158">
         <f t="shared" si="64"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AA97" s="194">
         <f t="shared" si="65"/>
@@ -19690,9 +19744,9 @@
         <f>+U98+Q98</f>
         <v>0</v>
       </c>
-      <c r="Z98" s="158" t="e">
+      <c r="Z98" s="158">
         <f t="shared" si="64"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AA98" s="194">
         <f t="shared" si="65"/>
@@ -19775,9 +19829,9 @@
         <f>+U99+Q99</f>
         <v>0</v>
       </c>
-      <c r="Z99" s="158" t="e">
+      <c r="Z99" s="158">
         <f t="shared" si="64"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AA99" s="194">
         <f t="shared" si="65"/>
@@ -19860,9 +19914,9 @@
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="Z100" s="158" t="e">
+      <c r="Z100" s="158">
         <f t="shared" si="64"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AA100" s="194">
         <f t="shared" si="65"/>
@@ -19945,9 +19999,9 @@
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="Z101" s="158" t="e">
+      <c r="Z101" s="158">
         <f t="shared" si="64"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AA101" s="194">
         <f t="shared" si="65"/>
@@ -19999,9 +20053,9 @@
         <f>SUM(Y70:Y101)</f>
         <v>0</v>
       </c>
-      <c r="Z102" s="212" t="e">
+      <c r="Z102" s="212">
         <f>SUM(Y88:Y101)/TOTAL_MEASUED_INCOME</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AA102" s="123"/>
     </row>
@@ -20057,14 +20111,14 @@
       </c>
       <c r="J104" s="45">
         <f>SUM(Q33:Q63)</f>
-        <v>0</v>
+        <v>129.375</v>
       </c>
       <c r="N104" s="30" t="s">
         <v>199</v>
       </c>
       <c r="O104" s="266">
         <f>SUM(U33:U63)</f>
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="U104" s="29"/>
       <c r="W104" s="28"/>
@@ -20107,11 +20161,11 @@
       </c>
       <c r="Y105" s="71">
         <f>+O104+J104</f>
-        <v>0</v>
-      </c>
-      <c r="Z105" s="228" t="e">
+        <v>293.375</v>
+      </c>
+      <c r="Z105" s="228">
         <f>+Y105/Y112</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="AA105" s="407"/>
     </row>
@@ -20128,7 +20182,7 @@
       <c r="I106" s="409"/>
       <c r="J106" s="409">
         <f>SUM(J104:J105)</f>
-        <v>0</v>
+        <v>129.375</v>
       </c>
       <c r="K106" s="61"/>
       <c r="L106" s="61"/>
@@ -20136,7 +20190,7 @@
       <c r="N106" s="61"/>
       <c r="O106" s="410">
         <f>SUM(O104:O105)</f>
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="U106" s="29"/>
       <c r="W106" s="45"/>
@@ -20147,9 +20201,9 @@
         <f>+O105+J105</f>
         <v>0</v>
       </c>
-      <c r="Z106" s="232" t="e">
+      <c r="Z106" s="232">
         <f>+Y106/Y112</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AA106" s="411"/>
     </row>
@@ -20159,7 +20213,7 @@
       </c>
       <c r="B107" s="45">
         <f>+Y112</f>
-        <v>0</v>
+        <v>293.375</v>
       </c>
       <c r="C107" s="220"/>
       <c r="F107" s="346"/>
@@ -20175,7 +20229,7 @@
       <c r="X107" s="193"/>
       <c r="Y107" s="236">
         <f>SUM(Y105:Y106)</f>
-        <v>0</v>
+        <v>293.375</v>
       </c>
       <c r="Z107" s="237"/>
       <c r="AA107" s="414"/>
@@ -20225,9 +20279,9 @@
       <c r="A109" s="147" t="s">
         <v>206</v>
       </c>
-      <c r="B109" s="244" t="e">
+      <c r="B109" s="244">
         <f>+Z106</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="C109" s="220"/>
       <c r="J109" s="29"/>
@@ -20258,9 +20312,9 @@
       <c r="A110" s="147" t="s">
         <v>207</v>
       </c>
-      <c r="B110" s="244" t="e">
+      <c r="B110" s="244">
         <f>+AA14</f>
-        <v>#DIV/0!</v>
+        <v>0.10264482201119471</v>
       </c>
       <c r="C110" s="220"/>
       <c r="J110" s="29"/>
@@ -20310,9 +20364,9 @@
         <f>+V110</f>
         <v>0</v>
       </c>
-      <c r="Z110" s="246" t="e">
+      <c r="Z110" s="246">
         <f>+Y110/Y112</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AA110" s="418"/>
     </row>
@@ -20401,7 +20455,7 @@
       </c>
       <c r="Y112" s="180">
         <f>+Y107+Y110</f>
-        <v>0</v>
+        <v>293.375</v>
       </c>
       <c r="AA112" s="418"/>
     </row>
@@ -20448,7 +20502,7 @@
       </c>
       <c r="Y113" s="45">
         <f>+Y112</f>
-        <v>0</v>
+        <v>293.375</v>
       </c>
       <c r="AA113" s="428"/>
       <c r="AC113" s="252"/>
@@ -20870,7 +20924,7 @@
       <c r="X122" s="288"/>
       <c r="Y122" s="289">
         <f>-(+Y112-Y120)</f>
-        <v>2359260</v>
+        <v>2358966.625</v>
       </c>
       <c r="Z122" s="289"/>
       <c r="AA122" s="466"/>
